--- a/Base/Teams/Ravens/Players Data.xlsx
+++ b/Base/Teams/Ravens/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>P.Ricard</t>
+  </si>
+  <si>
+    <t>N.McCrary</t>
   </si>
   <si>
     <t>M.Brown</t>
@@ -456,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -547,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -567,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -607,13 +610,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -627,15 +630,35 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -657,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -709,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -735,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -747,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -761,10 +784,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -784,25 +807,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -810,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -825,10 +848,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -836,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -862,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -888,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -914,10 +937,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -940,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -966,22 +989,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -992,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1018,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1044,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>11</v>

--- a/Base/Teams/Ravens/Players Data.xlsx
+++ b/Base/Teams/Ravens/Players Data.xlsx
@@ -496,7 +496,7 @@
         <v>44</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -510,13 +510,13 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -570,13 +570,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -653,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -758,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -810,13 +810,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -836,13 +836,13 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -862,10 +862,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -940,22 +940,22 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -992,22 +992,22 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1070,10 +1070,10 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>2</v>

--- a/Base/Teams/Ravens/Players Data.xlsx
+++ b/Base/Teams/Ravens/Players Data.xlsx
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -550,13 +550,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -570,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -732,11 +732,11 @@
         <v>8</v>
       </c>
       <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -758,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -810,22 +810,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -862,10 +862,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -888,10 +888,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -900,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -914,10 +914,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
         <v>3</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -992,22 +992,22 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/Base/Teams/Ravens/Players Data.xlsx
+++ b/Base/Teams/Ravens/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>T.Huntley</t>
+  </si>
+  <si>
+    <t>J.Johnson</t>
   </si>
   <si>
     <t>T.Williams</t>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,16 +533,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -550,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -570,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -590,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -610,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -636,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -650,15 +653,35 @@
         <v>13</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -680,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -703,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -729,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,13 +778,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -781,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -807,22 +830,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -833,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -859,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>41</v>
@@ -885,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -911,13 +934,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -937,13 +960,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -952,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -963,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -989,25 +1012,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1015,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1041,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1067,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>12</v>

--- a/Base/Teams/Ravens/Players Data.xlsx
+++ b/Base/Teams/Ravens/Players Data.xlsx
@@ -513,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -573,16 +573,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -593,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -885,10 +885,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -963,13 +963,13 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1015,16 +1015,16 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>21</v>
@@ -1041,10 +1041,10 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">

--- a/Base/Teams/Ravens/Players Data.xlsx
+++ b/Base/Teams/Ravens/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -62,6 +62,9 @@
     <t>D.Duvernay</t>
   </si>
   <si>
+    <t>M.Andrews</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t>M.Boykin</t>
-  </si>
-  <si>
-    <t>M.Andrews</t>
   </si>
   <si>
     <t>N.Boyle</t>
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,16 +513,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -573,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>22</v>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>43</v>
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -682,6 +682,26 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -703,22 +723,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -781,10 +801,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -793,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -833,19 +853,19 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -856,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -908,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -934,10 +954,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -960,13 +980,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -986,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1012,22 +1032,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -1067,7 +1087,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1079,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1093,10 +1113,10 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>2</v>
